--- a/spec/ConvSpec-720,740-758-v1.7.xlsx
+++ b/spec/ConvSpec-720,740-758-v1.7.xlsx
@@ -308,7 +308,7 @@
     <t>Work - hasPart - Work ; add rdf:Type bflc:Uncontrolled</t>
   </si>
   <si>
-    <t>Fields 720, 740-754 - Added Entries - v1.7, 07/29/2021</t>
+    <t>Fields 720, 740-754 - Added Entries - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
